--- a/residentlistbylandlord.xlsx
+++ b/residentlistbylandlord.xlsx
@@ -425,13 +425,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="7"/>
+    <col customWidth="1" max="2" min="2" width="8"/>
+    <col customWidth="1" max="3" min="3" width="20"/>
+    <col customWidth="1" max="4" min="4" width="20"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="15"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
@@ -466,27 +474,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mr</t>
+          <t>Dr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adelodun</t>
+          <t>Adaigbe</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>17 Jibewa Shomorin Close</t>
+          <t>7 Jibewa Shomorin Close</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2348167327983</t>
+          <t>2348070718766</t>
         </is>
       </c>
     </row>
@@ -496,207 +504,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mr</t>
+          <t xml:space="preserve">Mr </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Akpan</t>
+          <t>Andy</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sylvanus</t>
+          <t>na</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>17 Jibewa Shomorin Close</t>
+          <t>7 Jibewa Shomorin Close</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2348061699107</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Mr</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Edogun</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Peace</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>17 Jibewa Shomorin Close</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2349168016803</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Iheme</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Ekene</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>17 Jibewa Shomorin Close</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2348035007625</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mr</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Olalekan</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Otunba</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>17 Jibewa Shomorin Close</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2348182300274</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mr</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Oluwole</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Segun</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>17 Jibewa Shomorin Close</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2348062083632</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Mr</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Omoruyi</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Augustine</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>17 Jibewa Shomorin Close</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2348134612833</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Mrs</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Ronke</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Balogun</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>17 Jibewa Shomorin Close</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2348075000362</t>
+          <t>2348023416950</t>
         </is>
       </c>
     </row>

--- a/residentlistbylandlord.xlsx
+++ b/residentlistbylandlord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,27 +474,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr</t>
+          <t>Mr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Adaigbe</t>
+          <t>Daniel</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>na</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7 Jibewa Shomorin Close</t>
+          <t>2 Adeogun Street</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2348070718766</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -504,27 +504,477 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mr </t>
+          <t>Mr</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Andy</t>
+          <t>Dare</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>na</t>
+          <t>Adeogun</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7 Jibewa Shomorin Close</t>
+          <t>2 Adeogun Street</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2348023416950</t>
+          <t>2348062105535</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Emma</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2347064439966</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mrs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Iya Daniel</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mrs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Iya Pelumi</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Jimoh</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Koulete</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2349132223243</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Kayode</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Korede</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ola</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sikiru</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Sir Tailor</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2348064658198</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Soji</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Adeogun</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2348158941240</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mr</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Solomon</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>na</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2 Adeogun Street</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
